--- a/src/test/resources/RainbowSuperStoreSampleDataSheet.xlsx
+++ b/src/test/resources/RainbowSuperStoreSampleDataSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabit\eclipse-workspace\com.RainbowSuperStore\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30441E85-92F2-4018-B477-BA627EA4ED7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F08F76A-85BA-4C9A-8F19-065F0DFAE40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>SampleTestData</t>
-  </si>
-  <si>
     <t>Manage Expense</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
   </si>
   <si>
     <t>newitem</t>
+  </si>
+  <si>
+    <t>NewTestData</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -489,13 +489,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -506,7 +506,7 @@
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
         <v>500</v>
@@ -520,10 +520,10 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
